--- a/Ifood-Teste-4.xlsx
+++ b/Ifood-Teste-4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\Projeto 2 CdD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0328EFED-5E63-40F4-820F-96B14C1CA58A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE25913-A948-4632-9C70-AFB9974A175C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1965" yWindow="1965" windowWidth="18810" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="411">
   <si>
     <t>Tweets</t>
   </si>
@@ -1631,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1647,6 +1647,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1666,7 +1669,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1988,18 +1991,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="72.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="168.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2109,351 +2112,480 @@
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C14" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C15" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
+      <c r="B21" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
+      <c r="B22" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
+      <c r="B23" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
+      <c r="B24" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C26" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
+      <c r="B27" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C27" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
+      <c r="B28" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
+      <c r="B29" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
+      <c r="B30" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C30" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
+      <c r="B31" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C31" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
+      <c r="B32" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C32" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
+      <c r="B33" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
+      <c r="B34" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C34" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
+      <c r="B35" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
+      <c r="B36" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C36" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
+      <c r="B37" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C37" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
+      <c r="B38" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C38" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
+      <c r="B39" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C39" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
+      <c r="B40" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C40" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
+      <c r="B41" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C41" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
+      <c r="B42" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C42" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
+      <c r="B43" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C43" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="B44" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C44" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
+      <c r="B45" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C45" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
+      <c r="B46" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C46" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
+      <c r="B47" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C47" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
+      <c r="B48" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C48" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
+      <c r="B49" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C49" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
+      <c r="B50" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C50" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
+      <c r="B51" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="C51" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
+      <c r="B52" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C52" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
+      <c r="B53" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C53" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2461,7 +2593,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2469,7 +2601,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2477,7 +2609,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2485,7 +2617,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2493,7 +2625,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2501,7 +2633,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2509,7 +2641,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2517,7 +2649,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2525,7 +2657,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2533,7 +2665,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2541,7 +2673,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2549,7 +2681,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2557,7 +2689,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2565,7 +2697,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2573,7 +2705,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2581,7 +2713,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2589,7 +2721,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2597,7 +2729,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2605,7 +2737,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2613,7 +2745,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2621,7 +2753,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2629,7 +2761,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2637,7 +2769,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2645,7 +2777,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2653,7 +2785,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2661,7 +2793,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2669,7 +2801,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2677,7 +2809,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2685,7 +2817,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2693,7 +2825,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2701,7 +2833,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2709,7 +2841,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2717,7 +2849,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2725,7 +2857,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2733,7 +2865,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2741,7 +2873,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2749,7 +2881,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2757,7 +2889,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2765,7 +2897,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2773,7 +2905,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2781,7 +2913,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2789,7 +2921,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2797,7 +2929,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2805,7 +2937,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2813,7 +2945,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2821,7 +2953,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2829,7 +2961,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2837,7 +2969,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2845,7 +2977,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2853,7 +2985,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2861,7 +2993,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -2869,7 +3001,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2877,7 +3009,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -2885,7 +3017,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2893,7 +3025,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -2901,7 +3033,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -2909,7 +3041,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -2917,7 +3049,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -2925,7 +3057,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2933,7 +3065,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -2941,7 +3073,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -2949,7 +3081,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -2957,7 +3089,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -2965,7 +3097,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -2973,7 +3105,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -2981,7 +3113,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -2989,7 +3121,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -2997,7 +3129,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -3005,7 +3137,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -3013,7 +3145,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -3021,7 +3153,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -3029,7 +3161,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -3037,7 +3169,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -3045,7 +3177,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -3053,7 +3185,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -3061,7 +3193,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3069,7 +3201,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -3077,7 +3209,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3085,7 +3217,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -3093,7 +3225,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -3101,7 +3233,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -3109,7 +3241,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -3117,7 +3249,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -3125,7 +3257,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -3133,7 +3265,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -3141,7 +3273,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -3149,7 +3281,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -3157,7 +3289,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -3165,7 +3297,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -3173,7 +3305,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -3181,7 +3313,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -3189,7 +3321,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -3197,7 +3329,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -3205,7 +3337,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -3213,7 +3345,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -3221,7 +3353,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -3229,7 +3361,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -3237,7 +3369,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -3245,7 +3377,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -3253,7 +3385,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -3261,7 +3393,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -3269,7 +3401,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -3277,7 +3409,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -3285,7 +3417,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -3293,7 +3425,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -3301,7 +3433,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -3309,7 +3441,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -3317,7 +3449,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -3325,7 +3457,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -3333,7 +3465,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -3341,7 +3473,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -3349,7 +3481,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -3357,7 +3489,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -3365,7 +3497,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -3373,7 +3505,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -3381,7 +3513,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -3389,7 +3521,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -3397,7 +3529,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -3405,7 +3537,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -3413,7 +3545,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -3421,7 +3553,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -3429,7 +3561,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -3437,7 +3569,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -3445,7 +3577,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -3453,7 +3585,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -3461,7 +3593,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -3469,7 +3601,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -3477,7 +3609,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -3485,7 +3617,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -3493,7 +3625,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -3501,7 +3633,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -3509,7 +3641,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -3517,7 +3649,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -3525,7 +3657,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -3533,7 +3665,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -3541,7 +3673,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -3549,7 +3681,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -3557,7 +3689,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -3565,7 +3697,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -3573,7 +3705,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -3581,7 +3713,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -3589,7 +3721,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -3597,7 +3729,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -3605,7 +3737,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -3613,7 +3745,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -3621,7 +3753,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -3629,7 +3761,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -3637,7 +3769,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -3645,7 +3777,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -3653,7 +3785,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -3661,7 +3793,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -3669,7 +3801,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -3677,7 +3809,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -3685,7 +3817,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -3693,7 +3825,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -3701,7 +3833,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -3709,7 +3841,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -3717,7 +3849,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -3725,7 +3857,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -3733,7 +3865,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -3741,7 +3873,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -3749,7 +3881,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -3757,7 +3889,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -3765,7 +3897,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -3773,7 +3905,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -3781,7 +3913,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -3789,7 +3921,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -3797,7 +3929,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -3805,7 +3937,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -3813,7 +3945,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -3821,7 +3953,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -3829,7 +3961,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -3837,7 +3969,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -3845,7 +3977,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -3853,7 +3985,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -3861,7 +3993,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -3869,7 +4001,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -3877,7 +4009,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -3885,15 +4017,18 @@
         <v>408</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>234</v>
       </c>
+      <c r="B233" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C233" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -3901,7 +4036,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -3909,7 +4044,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -3917,7 +4052,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -3925,7 +4060,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -3933,7 +4068,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -3941,7 +4076,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -3949,7 +4084,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -3957,7 +4092,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -3965,7 +4100,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -3973,7 +4108,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -3981,7 +4116,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -3989,7 +4124,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -3997,7 +4132,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -4005,7 +4140,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -4013,7 +4148,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -4021,7 +4156,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -4029,7 +4164,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -4037,7 +4172,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -4045,7 +4180,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -4053,7 +4188,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -4061,7 +4196,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -4069,7 +4204,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -4077,7 +4212,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -4085,7 +4220,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -4093,7 +4228,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -4101,7 +4236,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -4109,7 +4244,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -4117,7 +4252,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -4125,7 +4260,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -4133,7 +4268,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -4141,7 +4276,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -4149,7 +4284,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -4157,7 +4292,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -4165,7 +4300,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -4173,7 +4308,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -4181,7 +4316,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -4189,7 +4324,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -4197,7 +4332,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -4205,7 +4340,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -4213,7 +4348,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -4221,7 +4356,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -4229,7 +4364,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -4237,7 +4372,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>278</v>
       </c>
@@ -4245,7 +4380,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -4253,7 +4388,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -4261,7 +4396,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -4269,7 +4404,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -4277,7 +4412,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -4285,7 +4420,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -4293,7 +4428,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -4301,7 +4436,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -4309,7 +4444,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -4317,7 +4452,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -4325,7 +4460,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -4333,7 +4468,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -4341,7 +4476,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -4349,7 +4484,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -4357,7 +4492,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -4365,7 +4500,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>294</v>
       </c>
@@ -4373,7 +4508,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>295</v>
       </c>
@@ -4381,7 +4516,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -4389,7 +4524,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -4397,7 +4532,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -4405,7 +4540,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -4413,7 +4548,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -4421,7 +4556,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -4429,7 +4564,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -4437,7 +4572,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -4445,7 +4580,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -4453,7 +4588,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -4461,7 +4596,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -4469,7 +4604,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -4477,7 +4612,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -4485,7 +4620,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -4493,7 +4628,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>310</v>
       </c>
@@ -4501,7 +4636,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>311</v>
       </c>
@@ -4509,7 +4644,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -4517,7 +4652,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -4525,7 +4660,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -4533,7 +4668,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -4541,7 +4676,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -4549,7 +4684,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -4557,7 +4692,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -4565,7 +4700,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>319</v>
       </c>
@@ -4573,7 +4708,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>320</v>
       </c>
@@ -4581,7 +4716,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -4589,7 +4724,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -4597,7 +4732,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -4605,7 +4740,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -4613,7 +4748,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -4621,7 +4756,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -4629,7 +4764,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -4637,7 +4772,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -4645,7 +4780,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -4653,7 +4788,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -4661,7 +4796,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -4669,7 +4804,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -4677,7 +4812,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -4685,7 +4820,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -4693,7 +4828,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -4701,7 +4836,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -4709,7 +4844,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -4717,7 +4852,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -4725,7 +4860,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -4733,7 +4868,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -4741,7 +4876,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>341</v>
       </c>
@@ -4749,7 +4884,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>342</v>
       </c>
@@ -4757,7 +4892,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -4765,7 +4900,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -4773,7 +4908,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -4781,7 +4916,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -4789,7 +4924,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -4797,7 +4932,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -4805,7 +4940,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>349</v>
       </c>
@@ -4813,7 +4948,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>350</v>
       </c>
@@ -4821,7 +4956,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>351</v>
       </c>
@@ -4829,7 +4964,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>352</v>
       </c>
@@ -4837,7 +4972,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>353</v>
       </c>
@@ -4845,7 +4980,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -4853,7 +4988,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>355</v>
       </c>
@@ -4861,7 +4996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>356</v>
       </c>
@@ -4869,7 +5004,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>357</v>
       </c>
@@ -4877,7 +5012,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>358</v>
       </c>
@@ -4885,7 +5020,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>359</v>
       </c>
@@ -4893,7 +5028,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>360</v>
       </c>
@@ -4901,7 +5036,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>361</v>
       </c>
@@ -4909,7 +5044,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>362</v>
       </c>
@@ -4917,7 +5052,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>363</v>
       </c>
@@ -4925,7 +5060,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>364</v>
       </c>
@@ -4933,7 +5068,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>365</v>
       </c>
@@ -4941,7 +5076,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -4949,7 +5084,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>367</v>
       </c>
@@ -4957,7 +5092,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>368</v>
       </c>
@@ -4965,7 +5100,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>369</v>
       </c>
@@ -4973,7 +5108,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>370</v>
       </c>
@@ -4981,7 +5116,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>371</v>
       </c>
@@ -4989,7 +5124,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>372</v>
       </c>
@@ -4997,7 +5132,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -5005,7 +5140,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>374</v>
       </c>
@@ -5013,7 +5148,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>375</v>
       </c>
@@ -5021,7 +5156,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>376</v>
       </c>
@@ -5029,7 +5164,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>377</v>
       </c>
@@ -5037,7 +5172,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>378</v>
       </c>
@@ -5045,7 +5180,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>379</v>
       </c>
@@ -5053,7 +5188,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>380</v>
       </c>
@@ -5061,7 +5196,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>381</v>
       </c>
@@ -5069,7 +5204,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>382</v>
       </c>
@@ -5077,7 +5212,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>383</v>
       </c>
@@ -5085,7 +5220,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>384</v>
       </c>
@@ -5093,7 +5228,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>385</v>
       </c>
@@ -5101,7 +5236,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>386</v>
       </c>
@@ -5109,7 +5244,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>387</v>
       </c>
@@ -5117,7 +5252,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -5125,7 +5260,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>389</v>
       </c>
@@ -5133,7 +5268,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>390</v>
       </c>
@@ -5141,7 +5276,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>391</v>
       </c>
@@ -5149,7 +5284,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>392</v>
       </c>
@@ -5157,7 +5292,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>393</v>
       </c>
@@ -5165,7 +5300,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>394</v>
       </c>
@@ -5173,7 +5308,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>395</v>
       </c>
@@ -5181,7 +5316,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>396</v>
       </c>
@@ -5189,7 +5324,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>397</v>
       </c>
@@ -5197,7 +5332,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -5205,7 +5340,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>399</v>
       </c>
@@ -5213,7 +5348,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>400</v>
       </c>
@@ -5221,7 +5356,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>401</v>
       </c>
@@ -5229,7 +5364,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>402</v>
       </c>
@@ -5237,7 +5372,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>403</v>
       </c>
@@ -5245,7 +5380,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>404</v>
       </c>
@@ -5253,7 +5388,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>405</v>
       </c>

--- a/Ifood-Teste-4.xlsx
+++ b/Ifood-Teste-4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE25913-A948-4632-9C70-AFB9974A175C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFB5F97-6D1F-4B66-AA49-1219101966AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="411">
   <si>
     <t>Tweets</t>
   </si>
@@ -373,15 +373,6 @@
     <t>mano, tô na pista!! calor do caraai.. depois de bater minha meta no ifood, vou dar um mergulho no mar,  tirar a mazela do fds. rs</t>
   </si>
   <si>
-    <t>@vicksiebra ohf 
-sei exatamente como é isso. soq o zina apareceu na minha vida bem cedo e supria dmais essa necessidade. 
-also, eu posso te dar carinho. só tem q esperar minhas provas acabarem. 
-habilidades: 
-dormir de conchinha
-ajudar a escolher rango no ifood
-beijinhos na testa infinito +</t>
-  </si>
-  <si>
     <t>@perrygosa_ como assim trabalhando de moto ??? ta fazendo ifood é? kk</t>
   </si>
   <si>
@@ -1573,6 +1564,15 @@
   </si>
   <si>
     <t>BOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ohf 
+sei exatamente como é isso. soq o zina apareceu na minha vida bem cedo e supria dmais essa necessidade. 
+also, eu posso te dar carinho. só tem q esperar minhas provas acabarem. 
+habilidades: 
+dormir de conchinha
+ajudar a escolher rango no ifood
+beijinhos na testa infinito +</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1650,6 +1650,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1991,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B405" sqref="B405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2018,10 +2021,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2029,10 +2032,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2040,10 +2043,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2051,10 +2054,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2062,10 +2065,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2073,10 +2076,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2084,10 +2087,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2095,10 +2098,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2106,10 +2109,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2117,10 +2120,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2128,10 +2131,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2139,10 +2142,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2150,10 +2153,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2161,10 +2164,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -2172,10 +2175,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2183,10 +2186,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2194,10 +2197,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -2205,10 +2208,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -2216,10 +2219,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -2227,10 +2230,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2238,10 +2241,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2249,10 +2252,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2260,10 +2263,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -2271,10 +2274,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2282,10 +2285,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2293,10 +2296,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2304,10 +2307,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -2315,10 +2318,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2326,10 +2329,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2337,10 +2340,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2348,10 +2351,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -2359,10 +2362,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -2370,10 +2373,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -2381,10 +2384,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -2392,10 +2395,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -2403,10 +2406,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -2414,10 +2417,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -2425,10 +2428,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -2436,10 +2439,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -2447,10 +2450,10 @@
         <v>42</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -2458,10 +2461,10 @@
         <v>43</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -2469,10 +2472,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -2480,10 +2483,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -2491,10 +2494,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -2502,10 +2505,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -2513,10 +2516,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -2524,10 +2527,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -2535,10 +2538,10 @@
         <v>50</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -2546,10 +2549,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -2557,10 +2560,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -2568,10 +2571,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -2579,383 +2582,524 @@
         <v>54</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
+      <c r="B54" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C54" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
+      <c r="B55" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="C55" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
+      <c r="B56" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C56" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
+      <c r="B57" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="C57" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
+      <c r="B58" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C58" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
+      <c r="B59" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C59" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
+      <c r="B60" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C60" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
+      <c r="B61" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C61" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
+      <c r="B62" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C62" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
+      <c r="B63" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C63" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
+      <c r="B64" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C64" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
+      <c r="B65" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C65" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>67</v>
       </c>
+      <c r="B66" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C66" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>68</v>
       </c>
+      <c r="B67" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C67" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
+      <c r="B68" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C68" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>70</v>
       </c>
+      <c r="B69" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C69" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>71</v>
       </c>
+      <c r="B70" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C70" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>72</v>
       </c>
+      <c r="B71" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C71" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>73</v>
       </c>
+      <c r="B72" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C72" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>74</v>
       </c>
+      <c r="B73" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="C73" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>75</v>
       </c>
+      <c r="B74" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C74" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>76</v>
       </c>
+      <c r="B75" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="C75" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>77</v>
       </c>
+      <c r="B76" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C76" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>78</v>
       </c>
+      <c r="B77" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="C77" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>79</v>
       </c>
+      <c r="B78" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C78" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>80</v>
       </c>
+      <c r="B79" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="C79" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>81</v>
       </c>
+      <c r="B80" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C80" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
+      <c r="B81" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C81" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>83</v>
       </c>
+      <c r="B82" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C82" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>84</v>
       </c>
+      <c r="B83" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C83" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>85</v>
       </c>
+      <c r="B84" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C84" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>86</v>
       </c>
+      <c r="B85" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="C85" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
+      <c r="B86" s="7" t="s">
+        <v>409</v>
+      </c>
       <c r="C86" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>88</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C100" s="4">
         <v>-1</v>
@@ -2963,143 +3107,197 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C118" s="4">
         <v>-1</v>
@@ -3107,1890 +3305,2595 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>310</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>311</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>314</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>320</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>321</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>322</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>325</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>334</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>336</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>337</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>346</v>
+        <v>345</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>350</v>
+        <v>349</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>351</v>
+        <v>350</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>352</v>
+        <v>351</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>354</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C354" s="4">
         <v>-1</v>
@@ -4998,405 +5901,757 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>356</v>
+        <v>355</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>360</v>
+        <v>359</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>361</v>
+        <v>360</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>363</v>
+        <v>362</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>363</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>365</v>
+        <v>364</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>366</v>
+        <v>365</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>368</v>
+        <v>367</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>369</v>
+        <v>368</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>370</v>
+        <v>369</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>372</v>
+        <v>371</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>373</v>
+        <v>372</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>374</v>
+        <v>373</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>375</v>
+        <v>374</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>376</v>
+        <v>375</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>379</v>
+        <v>378</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>380</v>
+        <v>379</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>381</v>
+        <v>380</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>382</v>
+        <v>381</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>383</v>
+        <v>382</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>384</v>
+        <v>383</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>385</v>
+        <v>384</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>386</v>
+        <v>385</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>388</v>
+        <v>387</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>390</v>
+        <v>389</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>394</v>
+        <v>393</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>395</v>
+        <v>394</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>396</v>
+        <v>395</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>397</v>
+        <v>396</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>399</v>
+        <v>398</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>400</v>
+        <v>399</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>404</v>
+        <v>403</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025AB3A16A127C6469E0387E0C178D1B0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f06a3353eff5c4fb48bb12c6423389e5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ad8801d9-4b89-4487-9e5a-32d8d8630081" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c04aee834ab2108f1106fdf73731d629" ns3:_="">
+    <xsd:import namespace="ad8801d9-4b89-4487-9e5a-32d8d8630081"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ad8801d9-4b89-4487-9e5a-32d8d8630081" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="10" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0328720-B8B3-4C2D-85A1-98084BC94FA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ad8801d9-4b89-4487-9e5a-32d8d8630081"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7C1E520-3E73-4DE0-9C48-584E0CB3E274}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C875E5-8639-4872-BEEB-BD55CF54290B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ad8801d9-4b89-4487-9e5a-32d8d8630081"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>